--- a/03_plots_and_tables/UC_AGP_table.xlsx
+++ b/03_plots_and_tables/UC_AGP_table.xlsx
@@ -387,7 +387,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>chao1</t>
+          <t>gini_index</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -401,16 +401,16 @@
         </is>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>3.272936208595173e-27</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>9.818808625785519e-26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>margalef</t>
+          <t>chao1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -424,16 +424,16 @@
         </is>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1.395458962063102e-14</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1.395458962063102e-13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>menhinick</t>
+          <t>margalef</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -447,10 +447,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1.414657646816701e-12</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1.060993235112526e-11</v>
       </c>
     </row>
     <row r="5">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>9.56832370178306e-12</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>5.740994221069836e-11</v>
       </c>
     </row>
     <row r="6">
@@ -493,16 +493,16 @@
         </is>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>4.523081188014361e-08</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1.696155445505385e-07</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>gini_index</t>
+          <t>menhinick</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -516,10 +516,10 @@
         </is>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>8.05306804428761e-08</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>2.684356014762537e-07</v>
       </c>
     </row>
     <row r="8">
@@ -539,10 +539,10 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.00072</v>
+        <v>0.0007157205335661828</v>
       </c>
       <c r="E8">
-        <v>0.00144</v>
+        <v>0.001431441067132366</v>
       </c>
     </row>
     <row r="9">
@@ -562,10 +562,10 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.01894</v>
+        <v>0.0189385580663336</v>
       </c>
       <c r="E9">
-        <v>0.03157</v>
+        <v>0.03156426344388933</v>
       </c>
     </row>
     <row r="10">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.20476</v>
+        <v>0.2047640587920804</v>
       </c>
       <c r="E10">
-        <v>0.26708</v>
+        <v>0.2670835549461918</v>
       </c>
     </row>
     <row r="11">
@@ -608,10 +608,10 @@
         </is>
       </c>
       <c r="D11">
-        <v>0.48789</v>
+        <v>0.4878854010327818</v>
       </c>
       <c r="E11">
-        <v>0.56295</v>
+        <v>0.5629446934993635</v>
       </c>
     </row>
   </sheetData>
